--- a/data/PSG_booths.xlsx
+++ b/data/PSG_booths.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA26D44-629A-4F0D-B3C5-C24D557356E5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C051D48-6DF4-49C0-8193-65BE795DC6F3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ex_id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Text dot com 5</t>
+  </si>
+  <si>
+    <t>booth_no</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -375,7 +378,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,8 +391,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>201</v>
       </c>
@@ -402,8 +408,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>202</v>
       </c>
@@ -416,8 +425,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>203</v>
       </c>
@@ -430,8 +442,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>204</v>
       </c>
@@ -444,8 +459,11 @@
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>205</v>
       </c>
@@ -457,6 +475,9 @@
       </c>
       <c r="D6">
         <v>3</v>
+      </c>
+      <c r="E6">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
